--- a/biology/Botanique/Petit_Boucage/Petit_Boucage.xlsx
+++ b/biology/Botanique/Petit_Boucage/Petit_Boucage.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Pimpinella saxifraga, le Petit boucage, est une plante herbacée de la famille des Apiacées.
 Les boucages, y compris l'anis vert, sont des Ombellifères à fleurs blanches ou rosées assez petites, fruits ovoïdes à cotes peu saillantes toutes égales entre elles, calice non apparent et feuilles composées de 5 à 11 folioles ovales grossièrement dentées. Il en existe en France plusieurs espèces. Les unes à fruits et partie supérieure de la plante sans poils; ce sont des Boucages saxifrages, dont l'un, à tige pleine et folioles petites (2 à 3 cm sur 1 à 2cm), est le Pimpinella saxifraga Huds., et l'autre à tige creuse et grandes folioles (5 à 7 cm sur 2 à 4 cm), est le Grand boucage ou P. magnaL. Les autres espèces, toutes méridionales, ont les fruits et la tige entièrement velus ; ce sont l'Anis vert qui se distingue à son odeur d'Anis, et 2 espèces méditerranéennes, P. peregrina L. et P.tragium Villars, dont les propriétés sont approximativement les mêmes que celles des Boucages saxifrages.
@@ -512,9 +524,11 @@
           <t>Liste des sous-espèces et variétés</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>Selon Catalogue of Life                                   (3 août 2013)[1] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t>Selon Catalogue of Life                                   (3 août 2013) :
 sous-espèce Pimpinella saxifraga subsp. nigra
 variété Pimpinella saxifraga var. procera</t>
         </is>
